--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3437950.867944432</v>
+        <v>3546101.960858726</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7823323.736817577</v>
+        <v>7829366.747404835</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>99.63308787977361</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>65.45124363843954</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5455114244159187</v>
+        <v>186.9303246108117</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>181.4821493078634</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>182.9377227717326</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>64.73169116973314</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>85.45564210299004</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>221.5928603920835</v>
       </c>
       <c r="F8" t="n">
-        <v>104.057545146729</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>58.31149652847255</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>29.57349381038617</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>9.146142788179425</v>
+        <v>43.73846614325559</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>99.97427419833814</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>115.8627380890769</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189104</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>174.7683347992599</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U25" t="n">
-        <v>251.7863045849731</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>119.6760079449695</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2956,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>104.4262124629293</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>182.3203821379247</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>64.36993339924416</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>185.6920487814951</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>113.9549918517058</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176103</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>159.2495972658944</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>42.7612371907953</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2051.040280862504</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>1682.077763922092</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>1323.812065315342</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>938.0238127170976</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4349,10 +4351,10 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
@@ -4364,16 +4366,16 @@
         <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.640120926626</v>
+        <v>2040.4648662715</v>
       </c>
       <c r="Y2" t="n">
-        <v>2437.640120926626</v>
+        <v>1650.325534295688</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4391,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193033</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>777.606906050775</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792.8801184070676</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>623.9439354791607</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4516,22 +4518,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478917</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>792.8801184070676</v>
+        <v>381.6341495347366</v>
       </c>
       <c r="X4" t="n">
-        <v>792.8801184070676</v>
+        <v>381.6341495347366</v>
       </c>
       <c r="Y4" t="n">
-        <v>792.8801184070676</v>
+        <v>381.6341495347366</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2175.739488336034</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C5" t="n">
-        <v>1806.776971395622</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>1448.511272788872</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>1062.723020190627</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>651.73711540102</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>236.0323651253088</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>580.2476435302228</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>580.2476435302228</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D7" t="n">
-        <v>580.2476435302228</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4753,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671834</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302228</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>580.2476435302228</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>580.2476435302228</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140705</v>
+        <v>1101.768613746538</v>
       </c>
       <c r="C8" t="n">
-        <v>926.2736972002933</v>
+        <v>1101.768613746538</v>
       </c>
       <c r="D8" t="n">
-        <v>926.2736972002933</v>
+        <v>1101.768613746538</v>
       </c>
       <c r="E8" t="n">
-        <v>926.2736972002933</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>1488.368453810659</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.8549345700854</v>
+        <v>716.897187706548</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>547.9610047786412</v>
       </c>
       <c r="D10" t="n">
-        <v>163.837793613838</v>
+        <v>397.8443653663054</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="X10" t="n">
-        <v>554.5033994003252</v>
+        <v>1119.338231680318</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.5033994003252</v>
+        <v>898.5456525367878</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355936</v>
@@ -5057,34 +5059,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
         <v>402.7245934908938</v>
@@ -5191,58 +5193,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5255,61 +5257,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,13 +5527,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5552,13 +5554,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5674,49 +5676,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2203.383708318259</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1983.7822433412</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1983.7822433412</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,46 +5743,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5823,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5887,34 +5889,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5966,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>615.644930552589</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1790.177183667224</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1535.492695461337</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1246.075525424376</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1018.085974526359</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>797.2933953828287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>2876.560776129205</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>3473.939263755757</v>
+        <v>842.6091804069454</v>
       </c>
       <c r="N30" t="n">
-        <v>4101.537227310363</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903525</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2341.482060890433</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2341.482060890433</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>2052.406834234631</v>
+        <v>2043.199616443681</v>
       </c>
       <c r="V31" t="n">
-        <v>1797.722346028744</v>
+        <v>1788.515128237794</v>
       </c>
       <c r="W31" t="n">
-        <v>1508.305175991783</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6689,61 +6691,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6048385560546</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718133</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729772</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801865</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4503.265426356679</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4214.190199700877</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3959.50571149499</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3670.08854145803</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3442.098990560012</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3442.098990560012</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7090,16 +7092,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7160,25 +7162,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2103.250070178706</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1814.174843522904</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2299.457522348532</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>168.7434581780635</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>193.3273467878353</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>294.8344935184725</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.4693302300329</v>
+        <v>104.8770068749568</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>40.32043864788575</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>136.2749052347511</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>6.257951202384675</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U25" t="n">
-        <v>34.39816980427108</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>25.74504007796173</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>76.60007353871531</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>103.8640922513194</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>115.4620467826931</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>31.71340154579315</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>58.15585306139388</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>182.9484181982419</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>684068.8437531694</v>
+        <v>690604.9640043473</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593907</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593907</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26316,28 @@
         <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244621</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244624</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="I2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
@@ -26344,13 +26346,13 @@
         <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467443</v>
-      </c>
-      <c r="D4" t="n">
-        <v>86694.403233071</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.3684617197</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719721</v>
+        <v>7507.368461719729</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
+        <v>7507.368461719729</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.36846171977</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.368461719732</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7507.368461719709</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="L4" t="n">
-        <v>7507.368461719668</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719668</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719668</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.36846171961</v>
-      </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984473</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984473</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-581339.7824380463</v>
+        <v>-581339.7824380462</v>
       </c>
       <c r="C6" t="n">
+        <v>533412.001137873</v>
+      </c>
+      <c r="D6" t="n">
         <v>533412.0011378734</v>
       </c>
-      <c r="D6" t="n">
-        <v>372208.1528896602</v>
-      </c>
       <c r="E6" t="n">
-        <v>312568.2446202732</v>
+        <v>130495.2648030826</v>
       </c>
       <c r="F6" t="n">
+        <v>637980.7064276286</v>
+      </c>
+      <c r="G6" t="n">
+        <v>637980.7064276283</v>
+      </c>
+      <c r="H6" t="n">
+        <v>637980.7064276289</v>
+      </c>
+      <c r="I6" t="n">
+        <v>637980.7064276279</v>
+      </c>
+      <c r="J6" t="n">
+        <v>470375.5286176464</v>
+      </c>
+      <c r="K6" t="n">
         <v>637980.7064276285</v>
       </c>
-      <c r="G6" t="n">
+      <c r="L6" t="n">
+        <v>637980.7064276285</v>
+      </c>
+      <c r="M6" t="n">
+        <v>505373.4126987017</v>
+      </c>
+      <c r="N6" t="n">
+        <v>637980.7064276284</v>
+      </c>
+      <c r="O6" t="n">
         <v>637980.7064276286</v>
       </c>
-      <c r="H6" t="n">
-        <v>637980.7064276284</v>
-      </c>
-      <c r="I6" t="n">
-        <v>637980.7064276286</v>
-      </c>
-      <c r="J6" t="n">
-        <v>470375.528617646</v>
-      </c>
-      <c r="K6" t="n">
-        <v>637980.7064276284</v>
-      </c>
-      <c r="L6" t="n">
-        <v>589686.7364194379</v>
-      </c>
-      <c r="M6" t="n">
-        <v>552925.6784921169</v>
-      </c>
-      <c r="N6" t="n">
-        <v>637980.7064276285</v>
-      </c>
-      <c r="O6" t="n">
-        <v>637980.7064276283</v>
-      </c>
       <c r="P6" t="n">
-        <v>637980.7064276285</v>
+        <v>637980.7064276282</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.584832100039</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.584832100039</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.1234559996094</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.584832100039</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>190.8166233022536</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000392</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>307.2429578619378</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>304.2798570400295</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>285.9774869121751</v>
+        <v>99.59267372577932</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>183.7907424631441</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>118.0808297906727</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>81.70227147683603</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>80.85095794181414</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>160.3375096801783</v>
       </c>
       <c r="F8" t="n">
-        <v>302.8185005949825</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9353245701553</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>116.860468836183</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29515,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29749,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29998,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30271,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>360.9226811202611</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N18" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,25 +32551,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496639</v>
       </c>
       <c r="O21" t="n">
-        <v>225.4828684302377</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32576,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>391.925066926462</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33172,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>309.9424824173358</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262923</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33499,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>351.1157147121651</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>328.9038320421828</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33736,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>409.0029787211726</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33973,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159448</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460043</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>610.0546826043653</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>373.3554713800157</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578707</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>504.1681401741866</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>584.5244463807092</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>630.2591755145955</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N18" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663306</v>
       </c>
       <c r="O21" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121318</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>167.3462379728913</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>108.4053175402708</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>213.2742757378061</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>266.8689447991542</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193538</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244911</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>242.0137592966824</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3546101.960858726</v>
+        <v>3541964.803608575</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7829366.747404835</v>
+        <v>7829366.747404834</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>263.9656533758505</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>65.45124363843954</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W4" t="n">
-        <v>186.9303246108117</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>181.4821493078634</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>27.41644277113664</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>85.45564210299004</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>221.5928603920835</v>
+        <v>245.8960234481116</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>29.57349381038617</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>43.73846614325559</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>146.9393756113374</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>115.8627380890769</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>19.91555826189104</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>20.92847288552853</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>182.3203821379247</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.36993339924416</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>113.9549918517058</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>162.1944220709586</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>159.2495972658944</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1263.725694231566</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.725694231566</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>2295.707355293236</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.577233583055</v>
+        <v>1942.938700023122</v>
       </c>
       <c r="X2" t="n">
-        <v>2040.4648662715</v>
+        <v>1569.472941762042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1650.325534295688</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.9856847044969</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W4" t="n">
-        <v>381.6341495347366</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>381.6341495347366</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>381.6341495347366</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2175.739488336033</v>
+        <v>1674.035030689734</v>
       </c>
       <c r="C5" t="n">
-        <v>1992.424186004858</v>
+        <v>1305.072513749322</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>946.8068151425718</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>561.0185625443276</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400155</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.339328400155</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>837.0793422748035</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624677</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800746</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821642</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1101.768613746538</v>
+        <v>1449.505074804839</v>
       </c>
       <c r="C8" t="n">
-        <v>1101.768613746538</v>
+        <v>1080.542557864427</v>
       </c>
       <c r="D8" t="n">
-        <v>1101.768613746538</v>
+        <v>722.276859257677</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
         <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.507785786471</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1488.368453810659</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.897187706548</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>547.9610047786412</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>397.8443653663054</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962184</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>102.742491745203</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.327782578335</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.338231680318</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.5456525367878</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048583</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908938</v>
@@ -5229,22 +5229,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2298.539471851637</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.550723916711</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797747</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>900.1991887469508</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9333885650335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,13 +5825,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
         <v>577.3880777468471</v>
@@ -5840,16 +5840,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5889,34 +5889,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,40 +6001,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6083,10 +6083,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111712</v>
@@ -6235,43 +6235,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6366,22 +6366,22 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069454</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2043.199616443681</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1788.515128237794</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6691,61 +6691,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444888</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,13 +7010,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
         <v>577.3880777468471</v>
@@ -7025,19 +7025,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7092,16 +7092,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1905.631426649717</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1616.214256612757</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7168,19 +7168,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,13 +7247,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
         <v>577.3880777468471</v>
@@ -7262,19 +7262,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7311,34 +7311,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7426,13 +7426,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718727</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>639.6425904082687</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C43" t="n">
-        <v>470.7064074803618</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803618</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979687</v>
+        <v>481.447947124485</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>481.447947124485</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7599,22 +7599,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2103.250070178706</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1814.174843522904</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1559.490355317017</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W43" t="n">
-        <v>1270.073185280056</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X43" t="n">
-        <v>1042.083634382039</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y43" t="n">
-        <v>821.2910552385084</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>168.7434581780635</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>294.8344935184725</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>104.8770068749568</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>70.46607471595087</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>136.2749052347511</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>103.8640922513194</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.4620467826931</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>3.329716221310264</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>58.15585306139388</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593907</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,16 +26423,16 @@
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719729</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
@@ -26441,19 +26441,19 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719721</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="K4" t="n">
-        <v>7507.368461719729</v>
-      </c>
       <c r="L4" t="n">
-        <v>7507.36846171977</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719732</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-581339.7824380462</v>
+        <v>-581339.7824380466</v>
       </c>
       <c r="C6" t="n">
-        <v>533412.001137873</v>
+        <v>533412.0011378735</v>
       </c>
       <c r="D6" t="n">
         <v>533412.0011378734</v>
       </c>
       <c r="E6" t="n">
-        <v>130495.2648030826</v>
+        <v>130147.8855487255</v>
       </c>
       <c r="F6" t="n">
-        <v>637980.7064276286</v>
+        <v>637633.3271732718</v>
       </c>
       <c r="G6" t="n">
-        <v>637980.7064276283</v>
+        <v>637633.3271732717</v>
       </c>
       <c r="H6" t="n">
-        <v>637980.7064276289</v>
+        <v>637633.3271732717</v>
       </c>
       <c r="I6" t="n">
-        <v>637980.7064276279</v>
+        <v>637633.3271732716</v>
       </c>
       <c r="J6" t="n">
-        <v>470375.5286176464</v>
+        <v>470028.1493632891</v>
       </c>
       <c r="K6" t="n">
-        <v>637980.7064276285</v>
+        <v>637633.3271732716</v>
       </c>
       <c r="L6" t="n">
-        <v>637980.7064276285</v>
+        <v>637633.3271732717</v>
       </c>
       <c r="M6" t="n">
-        <v>505373.4126987017</v>
+        <v>505026.0334443448</v>
       </c>
       <c r="N6" t="n">
-        <v>637980.7064276284</v>
+        <v>637633.3271732714</v>
       </c>
       <c r="O6" t="n">
-        <v>637980.7064276286</v>
+        <v>637633.3271732714</v>
       </c>
       <c r="P6" t="n">
-        <v>637980.7064276282</v>
+        <v>637633.3271732714</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,31 +27011,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.1234559996096</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>532.1234559996094</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27438,16 +27438,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>63.78660509428437</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>304.2798570400295</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59267372577932</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>183.7907424631441</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>379.4596029705748</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>80.85095794181414</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>160.3375096801783</v>
+        <v>136.0343466241502</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>116.860468836183</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>96.27076102970096</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31864,7 +31864,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496639</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>248.3870916262923</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,37 +33499,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>328.9038320421828</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>409.0029787211726</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,13 +33760,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,37 +33973,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460043</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>610.0546826043653</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34792,16 +34792,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>504.1681401741866</v>
+        <v>546.4575832202789</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>630.2591755145955</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35743,13 +35743,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663306</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>108.4053175402708</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>266.8689447991542</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243176</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>471.5003028244911</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3541964.803608575</v>
+        <v>3543725.333911359</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>288.6783372476649</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.9656533758505</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="V4" t="n">
-        <v>50.98074812542853</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>27.41644277113664</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>281.9502666305553</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>196.4017961483592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>245.8960234481116</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>213.2066220932634</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>29.959001240238</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>146.9393756113374</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E28" t="n">
-        <v>20.92847288552853</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>113.6427030833203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>205.090950487783</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>162.1944220709586</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>113.6427030833203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>251.5502284016991</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1182.87310169792</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="C2" t="n">
-        <v>813.9105847575083</v>
+        <v>1509.545268846059</v>
       </c>
       <c r="D2" t="n">
-        <v>455.6448861507579</v>
+        <v>1151.279570239308</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>765.4913176410641</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>354.5054128514566</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>342.8410666161495</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4366,16 +4366,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2295.707355293236</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>1942.938700023122</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1569.472941762042</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y2" t="n">
-        <v>1569.472941762042</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
         <v>51.24678656800311</v>
@@ -4488,16 +4488,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="V4" t="n">
-        <v>1584.950414897297</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1674.035030689734</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C5" t="n">
-        <v>1305.072513749322</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D5" t="n">
-        <v>946.8068151425718</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E5" t="n">
-        <v>561.0185625443276</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>1946.478191934812</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665546</v>
+        <v>1573.012433673732</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>1182.87310169792</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,7 +4649,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
         <v>909.2465818694943</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E7" t="n">
         <v>51.24678656800311</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1449.505074804839</v>
+        <v>1802.273730074954</v>
       </c>
       <c r="C8" t="n">
-        <v>1080.542557864427</v>
+        <v>1433.311213134542</v>
       </c>
       <c r="D8" t="n">
-        <v>722.276859257677</v>
+        <v>1075.045514527792</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>689.2572619295474</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>682.311761180344</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>266.6070109046328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4843,13 +4843,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.104914868961</v>
+        <v>2188.873570139076</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,31 +5038,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,13 +5117,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5135,13 +5135,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2416.701466165879</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2233.846631820783</v>
       </c>
       <c r="T13" t="n">
-        <v>2298.539471851637</v>
+        <v>2014.245166843724</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.464245195835</v>
+        <v>1725.169940187922</v>
       </c>
       <c r="V13" t="n">
-        <v>1754.779756989948</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W13" t="n">
-        <v>1465.362586952987</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="14">
@@ -5260,43 +5260,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
         <v>776.1751066403293</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -6126,19 +6126,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
         <v>484.8112968429803</v>
@@ -7845,13 +7845,13 @@
         <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241559</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>36.41624546988369</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>70.46607471595087</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E28" t="n">
-        <v>125.5054897610406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.97276993489203</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>20.61870490125418</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>3.329716221310264</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.97276993489203</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>34.97276993489191</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593907</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="M2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132552</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26441,7 +26441,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719721</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-581339.7824380466</v>
+        <v>-581339.7824380462</v>
       </c>
       <c r="C6" t="n">
         <v>533412.0011378735</v>
       </c>
       <c r="D6" t="n">
-        <v>533412.0011378734</v>
+        <v>533412.0011378732</v>
       </c>
       <c r="E6" t="n">
-        <v>130147.8855487255</v>
+        <v>130460.5268776469</v>
       </c>
       <c r="F6" t="n">
-        <v>637633.3271732718</v>
+        <v>637945.968502193</v>
       </c>
       <c r="G6" t="n">
-        <v>637633.3271732717</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="H6" t="n">
-        <v>637633.3271732717</v>
+        <v>637945.9685021929</v>
       </c>
       <c r="I6" t="n">
-        <v>637633.3271732716</v>
+        <v>637945.9685021929</v>
       </c>
       <c r="J6" t="n">
-        <v>470028.1493632891</v>
+        <v>470340.7906922104</v>
       </c>
       <c r="K6" t="n">
-        <v>637633.3271732716</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="L6" t="n">
-        <v>637633.3271732717</v>
+        <v>637945.9685021929</v>
       </c>
       <c r="M6" t="n">
-        <v>505026.0334443448</v>
+        <v>505338.6747732663</v>
       </c>
       <c r="N6" t="n">
-        <v>637633.3271732714</v>
+        <v>637945.9685021929</v>
       </c>
       <c r="O6" t="n">
-        <v>637633.3271732714</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="P6" t="n">
-        <v>637633.3271732714</v>
+        <v>637945.9685021928</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>12.34021531474048</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>63.78660509428437</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27593,10 +27593,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>89.82535797284092</v>
       </c>
       <c r="V4" t="n">
-        <v>201.1568951983995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>379.4596029705748</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,10 +27675,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>67.29070208685766</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,7 +27791,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>55.73584717546876</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>136.0343466241502</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>87.81193046914197</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>96.27076102970096</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28064,7 +28064,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>169.7679478717839</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>332.1692388321073</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543355</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202789</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,7 +35269,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,7 +35494,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>189.5729943876629</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997653</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
